--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_480__Reeval_Taguchi_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_480__Reeval_Taguchi_Modell_1.1.xlsx
@@ -5417,16 +5417,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>1.543898224830627</c:v>
+                  <c:v>1.543901920318604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.5623741745948792</c:v>
+                  <c:v>-0.5623723268508911</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>51.93606948852539</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.10380554199219</c:v>
+                  <c:v>50.10380172729492</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>35.01259613037109</c:v>
@@ -5438,16 +5438,16 @@
                   <c:v>1.173863530158997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8948796987533569</c:v>
+                  <c:v>0.8948760032653809</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.4467433393001556</c:v>
+                  <c:v>-0.4467396140098572</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.774167776107788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.17257118225098</c:v>
+                  <c:v>11.17257404327393</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>49.44257736206055</c:v>
@@ -5456,7 +5456,7 @@
                   <c:v>0.6965318322181702</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.9063631892204285</c:v>
+                  <c:v>0.9063650369644165</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>56.37621307373047</c:v>
@@ -5465,31 +5465,31 @@
                   <c:v>2.398906469345093</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.155530691146851</c:v>
+                  <c:v>1.155526876449585</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>47.90721130371094</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.3154630959033966</c:v>
+                  <c:v>-0.315464973449707</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.3554817736148834</c:v>
+                  <c:v>-0.3554854989051819</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.95761871337891</c:v>
+                  <c:v>31.95762252807617</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.9557785987854004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50.94086074829102</c:v>
+                  <c:v>50.94086456298828</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1.112731575965881</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2277912646532059</c:v>
+                  <c:v>0.2277931272983551</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.1696541607379913</c:v>
@@ -5501,55 +5501,55 @@
                   <c:v>52.61266708374023</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.06695201247930527</c:v>
+                  <c:v>0.0669538825750351</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>50.36781692504883</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6795658469200134</c:v>
+                  <c:v>0.6795714497566223</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.911953866481781</c:v>
+                  <c:v>0.9119519591331482</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.3811750113964081</c:v>
+                  <c:v>-0.38117316365242</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.246582880616188</c:v>
+                  <c:v>0.2465847432613373</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.8990979194641113</c:v>
+                  <c:v>0.8990997672080994</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>55.11943435668945</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.113024353981018</c:v>
+                  <c:v>1.113026261329651</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>16.21715354919434</c:v>
+                  <c:v>16.21715545654297</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>53.88731384277344</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.7836180925369263</c:v>
+                  <c:v>0.7836124897003174</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.94449996948242</c:v>
+                  <c:v>40.94449234008789</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.7032469511032104</c:v>
+                  <c:v>0.7032488584518433</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3746967017650604</c:v>
+                  <c:v>0.37469482421875</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1.000356674194336</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.6066725850105286</c:v>
+                  <c:v>0.6066688299179077</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.6571154594421387</c:v>
@@ -5561,19 +5561,19 @@
                   <c:v>0.1003096103668213</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.97262954711914</c:v>
+                  <c:v>49.97262191772461</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.05220701918005943</c:v>
+                  <c:v>-0.0522051565349102</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0.160414069890976</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2306481301784515</c:v>
+                  <c:v>0.2306518703699112</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.6658744812011719</c:v>
+                  <c:v>0.665870726108551</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0.2298686504364014</c:v>
@@ -5582,19 +5582,19 @@
                   <c:v>0.7869635820388794</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.518563032150269</c:v>
+                  <c:v>1.518561124801636</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0.04444757476449013</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.182287216186523</c:v>
+                  <c:v>5.182285308837891</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.232486829161644</c:v>
+                  <c:v>0.2324831038713455</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.3780384063720703</c:v>
+                  <c:v>0.3780346810817719</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1.003711462020874</c:v>
@@ -5615,7 +5615,7 @@
                   <c:v>0.930823802947998</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1477781683206558</c:v>
+                  <c:v>0.1477763056755066</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>51.22772979736328</c:v>
@@ -5624,13 +5624,13 @@
                   <c:v>0.8633160591125488</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.9971436262130737</c:v>
+                  <c:v>0.9971417784690857</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>0.205547884106636</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.8403099775314331</c:v>
+                  <c:v>0.8403081297874451</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1.317216515541077</c:v>
@@ -5639,16 +5639,16 @@
                   <c:v>51.47987365722656</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>48.26945114135742</c:v>
+                  <c:v>48.26944351196289</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.06082800403237343</c:v>
+                  <c:v>0.06082427501678467</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.7805430293083191</c:v>
+                  <c:v>0.7805449366569519</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.3653204739093781</c:v>
+                  <c:v>0.3653167486190796</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>0.7661411762237549</c:v>
@@ -5657,22 +5657,22 @@
                   <c:v>0.9153141975402832</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.8351388573646545</c:v>
+                  <c:v>0.8351444602012634</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.7212591171264648</c:v>
+                  <c:v>0.7212609648704529</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0.4404440522193909</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.7646978497505188</c:v>
+                  <c:v>0.7647015452384949</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.7596796154975891</c:v>
+                  <c:v>0.75968337059021</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>30.57979393005371</c:v>
+                  <c:v>30.57978630065918</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>0.155526414513588</c:v>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.543898224830627</v>
+        <v>1.543901920318604</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.5623741745948792</v>
+        <v>-0.5623723268508911</v>
       </c>
       <c r="G3">
         <v>72</v>
@@ -6475,7 +6475,7 @@
         <v>46.4901</v>
       </c>
       <c r="F5">
-        <v>50.10380554199219</v>
+        <v>50.10380172729492</v>
       </c>
       <c r="G5">
         <v>72</v>
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8948796987533569</v>
+        <v>0.8948760032653809</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-0.4467433393001556</v>
+        <v>-0.4467396140098572</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.17257118225098</v>
+        <v>11.17257404327393</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9063631892204285</v>
+        <v>0.9063650369644165</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.155530691146851</v>
+        <v>1.155526876449585</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.3154630959033966</v>
+        <v>-0.315464973449707</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-0.3554817736148834</v>
+        <v>-0.3554854989051819</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>46.4283</v>
       </c>
       <c r="F22">
-        <v>31.95761871337891</v>
+        <v>31.95762252807617</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>46.0768</v>
       </c>
       <c r="F24">
-        <v>50.94086074829102</v>
+        <v>50.94086456298828</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.2277912646532059</v>
+        <v>0.2277931272983551</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0.06695201247930527</v>
+        <v>0.0669538825750351</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.6795658469200134</v>
+        <v>0.6795714497566223</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0.911953866481781</v>
+        <v>0.9119519591331482</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-0.3811750113964081</v>
+        <v>-0.38117316365242</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.246582880616188</v>
+        <v>0.2465847432613373</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.8990979194641113</v>
+        <v>0.8990997672080994</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.113024353981018</v>
+        <v>1.113026261329651</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>45.1545</v>
       </c>
       <c r="F39">
-        <v>16.21715354919434</v>
+        <v>16.21715545654297</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.7836180925369263</v>
+        <v>0.7836124897003174</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>44.6167</v>
       </c>
       <c r="F42">
-        <v>40.94449996948242</v>
+        <v>40.94449234008789</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.7032469511032104</v>
+        <v>0.7032488584518433</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.3746967017650604</v>
+        <v>0.37469482421875</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.6066725850105286</v>
+        <v>0.6066688299179077</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>50.0511</v>
       </c>
       <c r="F50">
-        <v>49.97262954711914</v>
+        <v>49.97262191772461</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>-0.05220701918005943</v>
+        <v>-0.0522051565349102</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.2306481301784515</v>
+        <v>0.2306518703699112</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.6658744812011719</v>
+        <v>0.665870726108551</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.518563032150269</v>
+        <v>1.518561124801636</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>5.182287216186523</v>
+        <v>5.182285308837891</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.232486829161644</v>
+        <v>0.2324831038713455</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0.3780384063720703</v>
+        <v>0.3780346810817719</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0.1477781683206558</v>
+        <v>0.1477763056755066</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0.9971436262130737</v>
+        <v>0.9971417784690857</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.8403099775314331</v>
+        <v>0.8403081297874451</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>46.3983</v>
       </c>
       <c r="F76">
-        <v>48.26945114135742</v>
+        <v>48.26944351196289</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.06082800403237343</v>
+        <v>0.06082427501678467</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>0.7805430293083191</v>
+        <v>0.7805449366569519</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0.3653204739093781</v>
+        <v>0.3653167486190796</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0.8351388573646545</v>
+        <v>0.8351444602012634</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0.7212591171264648</v>
+        <v>0.7212609648704529</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.7646978497505188</v>
+        <v>0.7647015452384949</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0.7596796154975891</v>
+        <v>0.75968337059021</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>30.57979393005371</v>
+        <v>30.57978630065918</v>
       </c>
     </row>
     <row r="88" spans="1:6">
